--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Ccl2-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T16"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H2">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I2">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J2">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N2">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O2">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P2">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q2">
-        <v>0.284119438698</v>
+        <v>0.1287873964473333</v>
       </c>
       <c r="R2">
-        <v>2.557074948282</v>
+        <v>1.159086568026</v>
       </c>
       <c r="S2">
-        <v>0.0007671331674307372</v>
+        <v>0.0004843836207657534</v>
       </c>
       <c r="T2">
-        <v>0.0008566606168056866</v>
+        <v>0.0004999276329250583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H3">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I3">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J3">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N3">
         <v>1.350411</v>
       </c>
       <c r="O3">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P3">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q3">
-        <v>1.812007137609</v>
+        <v>4.920384677865667</v>
       </c>
       <c r="R3">
-        <v>16.308064238481</v>
+        <v>44.283462100791</v>
       </c>
       <c r="S3">
-        <v>0.004892487403364989</v>
+        <v>0.01850611015961924</v>
       </c>
       <c r="T3">
-        <v>0.005463459871925193</v>
+        <v>0.01909997665099194</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.025457</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H4">
-        <v>12.076371</v>
+        <v>32.792581</v>
       </c>
       <c r="I4">
-        <v>0.007988230327331255</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J4">
-        <v>0.008053698920764607</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,33 +682,33 @@
         <v>0.5</v>
       </c>
       <c r="M4">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N4">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O4">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P4">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q4">
-        <v>0.8624360476935001</v>
+        <v>0.5645680053563333</v>
       </c>
       <c r="R4">
-        <v>5.174616286161</v>
+        <v>3.387408032138</v>
       </c>
       <c r="S4">
-        <v>0.002328609756535529</v>
+        <v>0.002123402616612663</v>
       </c>
       <c r="T4">
-        <v>0.001733578432033727</v>
+        <v>0.001461028818703465</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>143.2163033333333</v>
+        <v>10.93086033333333</v>
       </c>
       <c r="H5">
-        <v>429.64891</v>
+        <v>32.792581</v>
       </c>
       <c r="I5">
-        <v>0.2842024688515132</v>
+        <v>0.02611891973042464</v>
       </c>
       <c r="J5">
-        <v>0.2865316876050504</v>
+        <v>0.02622656909968252</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.07058066666666667</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N5">
-        <v>0.211742</v>
+        <v>0.365222</v>
       </c>
       <c r="O5">
-        <v>0.09603293044844197</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P5">
-        <v>0.1063685922746608</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q5">
-        <v>10.10830216680222</v>
+        <v>1.330730224220222</v>
       </c>
       <c r="R5">
-        <v>90.97471950122001</v>
+        <v>11.976572017982</v>
       </c>
       <c r="S5">
-        <v>0.02729279592449286</v>
+        <v>0.005005023333426978</v>
       </c>
       <c r="T5">
-        <v>0.0304779722526321</v>
+        <v>0.005165635997062062</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,40 +794,40 @@
         <v>429.64891</v>
       </c>
       <c r="I6">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J6">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.4501370000000001</v>
+        <v>0.011782</v>
       </c>
       <c r="N6">
-        <v>1.350411</v>
+        <v>0.035346</v>
       </c>
       <c r="O6">
-        <v>0.612461985056394</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P6">
-        <v>0.678378956759722</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q6">
-        <v>64.46695713355668</v>
+        <v>1.687374485873333</v>
       </c>
       <c r="R6">
-        <v>580.2026142020101</v>
+        <v>15.18637037286</v>
       </c>
       <c r="S6">
-        <v>0.1740632082307258</v>
+        <v>0.006346401787765938</v>
       </c>
       <c r="T6">
-        <v>0.1943770673161166</v>
+        <v>0.006550059678594114</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>429.64891</v>
       </c>
       <c r="I7">
-        <v>0.2842024688515132</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J7">
-        <v>0.2865316876050504</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.2142455</v>
+        <v>0.450137</v>
       </c>
       <c r="N7">
-        <v>0.428491</v>
+        <v>1.350411</v>
       </c>
       <c r="O7">
-        <v>0.291505084495164</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P7">
-        <v>0.2152524509656171</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q7">
-        <v>30.68344851580167</v>
+        <v>64.46695713355668</v>
       </c>
       <c r="R7">
-        <v>184.10069109481</v>
+        <v>580.2026142020101</v>
       </c>
       <c r="S7">
-        <v>0.08284646469629457</v>
+        <v>0.2424673452333726</v>
       </c>
       <c r="T7">
-        <v>0.06167664803630163</v>
+        <v>0.2502481933070207</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,7 +903,7 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -912,51 +912,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>85.72041200000001</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H8">
-        <v>257.161236</v>
+        <v>429.64891</v>
       </c>
       <c r="I8">
-        <v>0.1701060015818651</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J8">
-        <v>0.1715001277151632</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>0.07058066666666667</v>
+        <v>0.051649</v>
       </c>
       <c r="N8">
-        <v>0.211742</v>
+        <v>0.103298</v>
       </c>
       <c r="O8">
-        <v>0.09603293044844197</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P8">
-        <v>0.1063685922746608</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q8">
-        <v>6.050203825901334</v>
+        <v>7.396978850863334</v>
       </c>
       <c r="R8">
-        <v>54.45183443311201</v>
+        <v>44.38187310518</v>
       </c>
       <c r="S8">
-        <v>0.01633577781877381</v>
+        <v>0.02782085434869487</v>
       </c>
       <c r="T8">
-        <v>0.01824222715998645</v>
+        <v>0.01914242247155024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,7 +965,7 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -974,46 +974,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>85.72041200000001</v>
+        <v>143.2163033333333</v>
       </c>
       <c r="H9">
-        <v>257.161236</v>
+        <v>429.64891</v>
       </c>
       <c r="I9">
-        <v>0.1701060015818651</v>
+        <v>0.3422104954945279</v>
       </c>
       <c r="J9">
-        <v>0.1715001277151632</v>
+        <v>0.3436209192170106</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.4501370000000001</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N9">
-        <v>1.350411</v>
+        <v>0.365222</v>
       </c>
       <c r="O9">
-        <v>0.612461985056394</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P9">
-        <v>0.678378956759722</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q9">
-        <v>38.58592909644401</v>
+        <v>17.43524824533556</v>
       </c>
       <c r="R9">
-        <v>347.2733618679961</v>
+        <v>156.91723420802</v>
       </c>
       <c r="S9">
-        <v>0.1041834593988352</v>
+        <v>0.06557589412469449</v>
       </c>
       <c r="T9">
-        <v>0.1163420777235715</v>
+        <v>0.06768024375984551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,7 +1027,7 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1036,51 +1036,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>85.72041200000001</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H10">
-        <v>257.161236</v>
+        <v>471.566864</v>
       </c>
       <c r="I10">
-        <v>0.1701060015818651</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J10">
-        <v>0.1715001277151632</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.2142455</v>
+        <v>0.011782</v>
       </c>
       <c r="N10">
-        <v>0.428491</v>
+        <v>0.035346</v>
       </c>
       <c r="O10">
-        <v>0.291505084495164</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P10">
-        <v>0.2152524509656171</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q10">
-        <v>18.365212529146</v>
+        <v>1.852000263882667</v>
       </c>
       <c r="R10">
-        <v>110.191275174876</v>
+        <v>16.668002374944</v>
       </c>
       <c r="S10">
-        <v>0.0495867643642561</v>
+        <v>0.006965577519423422</v>
       </c>
       <c r="T10">
-        <v>0.03691582283160523</v>
+        <v>0.007189104940700244</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,122 +1089,122 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>157.1889546666667</v>
+      </c>
+      <c r="H11">
+        <v>471.566864</v>
+      </c>
+      <c r="I11">
+        <v>0.3755976715691904</v>
+      </c>
+      <c r="J11">
+        <v>0.3771457008466821</v>
+      </c>
+      <c r="K11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>12.2891965</v>
-      </c>
-      <c r="H11">
-        <v>24.578393</v>
-      </c>
-      <c r="I11">
-        <v>0.02438702790262897</v>
-      </c>
-      <c r="J11">
-        <v>0.0163912633338466</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.07058066666666667</v>
+        <v>0.450137</v>
       </c>
       <c r="N11">
-        <v>0.211742</v>
+        <v>1.350411</v>
       </c>
       <c r="O11">
-        <v>0.09603293044844197</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P11">
-        <v>0.1063685922746608</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q11">
-        <v>0.8673796817676668</v>
+        <v>70.75656448678933</v>
       </c>
       <c r="R11">
-        <v>5.204278090606</v>
+        <v>636.8090803811041</v>
       </c>
       <c r="S11">
-        <v>0.002341957754417381</v>
+        <v>0.2661232530861229</v>
       </c>
       <c r="T11">
-        <v>0.001743515606424527</v>
+        <v>0.2746632261663542</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.2891965</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H12">
-        <v>24.578393</v>
+        <v>471.566864</v>
       </c>
       <c r="I12">
-        <v>0.02438702790262897</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J12">
-        <v>0.0163912633338466</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.5</v>
       </c>
       <c r="M12">
-        <v>0.4501370000000001</v>
+        <v>0.051649</v>
       </c>
       <c r="N12">
-        <v>1.350411</v>
+        <v>0.103298</v>
       </c>
       <c r="O12">
-        <v>0.612461985056394</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P12">
-        <v>0.678378956759722</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q12">
-        <v>5.531822044920501</v>
+        <v>8.118652319578667</v>
       </c>
       <c r="R12">
-        <v>33.19093226952301</v>
+        <v>48.711913917472</v>
       </c>
       <c r="S12">
-        <v>0.01493612751886981</v>
+        <v>0.03053514796305383</v>
       </c>
       <c r="T12">
-        <v>0.01111948812038874</v>
+        <v>0.0210100198654573</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,60 +1213,60 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.2891965</v>
+        <v>157.1889546666667</v>
       </c>
       <c r="H13">
-        <v>24.578393</v>
+        <v>471.566864</v>
       </c>
       <c r="I13">
-        <v>0.02438702790262897</v>
+        <v>0.3755976715691904</v>
       </c>
       <c r="J13">
-        <v>0.0163912633338466</v>
+        <v>0.3771457008466821</v>
       </c>
       <c r="K13">
         <v>1</v>
       </c>
       <c r="L13">
-        <v>0.5</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.2142455</v>
+        <v>0.1217406666666667</v>
       </c>
       <c r="N13">
-        <v>0.428491</v>
+        <v>0.365222</v>
       </c>
       <c r="O13">
-        <v>0.291505084495164</v>
+        <v>0.1916244387242736</v>
       </c>
       <c r="P13">
-        <v>0.2152524509656171</v>
+        <v>0.1969619425792371</v>
       </c>
       <c r="Q13">
-        <v>2.63290504874075</v>
+        <v>19.13628813375644</v>
       </c>
       <c r="R13">
-        <v>10.531620194963</v>
+        <v>172.226593203808</v>
       </c>
       <c r="S13">
-        <v>0.007108942629341781</v>
+        <v>0.07197369300059017</v>
       </c>
       <c r="T13">
-        <v>0.003528259607033333</v>
+        <v>0.07428334987417032</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>258.672133</v>
+        <v>5.153359</v>
       </c>
       <c r="H14">
-        <v>776.016399</v>
+        <v>10.306718</v>
       </c>
       <c r="I14">
-        <v>0.5133162713366615</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J14">
-        <v>0.5175232224251752</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.07058066666666667</v>
+        <v>0.011782</v>
       </c>
       <c r="N14">
-        <v>0.211742</v>
+        <v>0.035346</v>
       </c>
       <c r="O14">
-        <v>0.09603293044844197</v>
+        <v>0.0185453160301082</v>
       </c>
       <c r="P14">
-        <v>0.1063685922746608</v>
+        <v>0.0190618769471875</v>
       </c>
       <c r="Q14">
-        <v>18.25725159522867</v>
+        <v>0.060716875738</v>
       </c>
       <c r="R14">
-        <v>164.315264357058</v>
+        <v>0.364301254428</v>
       </c>
       <c r="S14">
-        <v>0.04929526578332718</v>
+        <v>0.0002283628749617893</v>
       </c>
       <c r="T14">
-        <v>0.05504821663881208</v>
+        <v>0.0001571274043042264</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1340,22 +1340,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>258.672133</v>
+        <v>5.153359</v>
       </c>
       <c r="H15">
-        <v>776.016399</v>
+        <v>10.306718</v>
       </c>
       <c r="I15">
-        <v>0.5133162713366615</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J15">
-        <v>0.5175232224251752</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,33 +1364,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M15">
-        <v>0.4501370000000001</v>
+        <v>0.450137</v>
       </c>
       <c r="N15">
         <v>1.350411</v>
       </c>
       <c r="O15">
-        <v>0.612461985056394</v>
+        <v>0.7085327552066554</v>
       </c>
       <c r="P15">
-        <v>0.678378956759722</v>
+        <v>0.7282682145116399</v>
       </c>
       <c r="Q15">
-        <v>116.437897932221</v>
+        <v>2.319717560183</v>
       </c>
       <c r="R15">
-        <v>1047.941081389989</v>
+        <v>13.918305361098</v>
       </c>
       <c r="S15">
-        <v>0.3143867025045983</v>
+        <v>0.008724713923499825</v>
       </c>
       <c r="T15">
-        <v>0.35107686372772</v>
+        <v>0.006003128364563873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1402,22 +1402,22 @@
         <v>23</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>258.672133</v>
+        <v>5.153359</v>
       </c>
       <c r="H16">
-        <v>776.016399</v>
+        <v>10.306718</v>
       </c>
       <c r="I16">
-        <v>0.5133162713366615</v>
+        <v>0.01231377640537609</v>
       </c>
       <c r="J16">
-        <v>0.5175232224251752</v>
+        <v>0.008243018499152039</v>
       </c>
       <c r="K16">
         <v>1</v>
@@ -1426,28 +1426,338 @@
         <v>0.5</v>
       </c>
       <c r="M16">
-        <v>0.2142455</v>
+        <v>0.051649</v>
       </c>
       <c r="N16">
-        <v>0.428491</v>
+        <v>0.103298</v>
       </c>
       <c r="O16">
-        <v>0.291505084495164</v>
+        <v>0.08129749003896268</v>
       </c>
       <c r="P16">
-        <v>0.2152524509656171</v>
+        <v>0.05570796596193557</v>
       </c>
       <c r="Q16">
-        <v>55.4193404706515</v>
+        <v>0.266165838991</v>
       </c>
       <c r="R16">
-        <v>332.516042823909</v>
+        <v>1.064663355964</v>
       </c>
       <c r="S16">
-        <v>0.1496343030487361</v>
+        <v>0.001001079114658076</v>
       </c>
       <c r="T16">
-        <v>0.1113981420586432</v>
+        <v>0.000459201793974367</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>5.153359</v>
+      </c>
+      <c r="H17">
+        <v>10.306718</v>
+      </c>
+      <c r="I17">
+        <v>0.01231377640537609</v>
+      </c>
+      <c r="J17">
+        <v>0.008243018499152039</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.365222</v>
+      </c>
+      <c r="O17">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P17">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q17">
+        <v>0.6273733602326667</v>
+      </c>
+      <c r="R17">
+        <v>3.764240161396</v>
+      </c>
+      <c r="S17">
+        <v>0.002359620492256396</v>
+      </c>
+      <c r="T17">
+        <v>0.001623560936309573</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>102.0140613333333</v>
+      </c>
+      <c r="H18">
+        <v>306.042184</v>
+      </c>
+      <c r="I18">
+        <v>0.2437591368004809</v>
+      </c>
+      <c r="J18">
+        <v>0.2447637923374727</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.011782</v>
+      </c>
+      <c r="N18">
+        <v>0.035346</v>
+      </c>
+      <c r="O18">
+        <v>0.0185453160301082</v>
+      </c>
+      <c r="P18">
+        <v>0.0190618769471875</v>
+      </c>
+      <c r="Q18">
+        <v>1.201929670629334</v>
+      </c>
+      <c r="R18">
+        <v>10.817367035664</v>
+      </c>
+      <c r="S18">
+        <v>0.004520590227191295</v>
+      </c>
+      <c r="T18">
+        <v>0.00466565729066386</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>102.0140613333333</v>
+      </c>
+      <c r="H19">
+        <v>306.042184</v>
+      </c>
+      <c r="I19">
+        <v>0.2437591368004809</v>
+      </c>
+      <c r="J19">
+        <v>0.2447637923374727</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M19">
+        <v>0.450137</v>
+      </c>
+      <c r="N19">
+        <v>1.350411</v>
+      </c>
+      <c r="O19">
+        <v>0.7085327552066554</v>
+      </c>
+      <c r="P19">
+        <v>0.7282682145116399</v>
+      </c>
+      <c r="Q19">
+        <v>45.92030352640267</v>
+      </c>
+      <c r="R19">
+        <v>413.282731737624</v>
+      </c>
+      <c r="S19">
+        <v>0.1727113328040407</v>
+      </c>
+      <c r="T19">
+        <v>0.178253690022709</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>102.0140613333333</v>
+      </c>
+      <c r="H20">
+        <v>306.042184</v>
+      </c>
+      <c r="I20">
+        <v>0.2437591368004809</v>
+      </c>
+      <c r="J20">
+        <v>0.2447637923374727</v>
+      </c>
+      <c r="K20">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>0.5</v>
+      </c>
+      <c r="M20">
+        <v>0.051649</v>
+      </c>
+      <c r="N20">
+        <v>0.103298</v>
+      </c>
+      <c r="O20">
+        <v>0.08129749003896268</v>
+      </c>
+      <c r="P20">
+        <v>0.05570796596193557</v>
+      </c>
+      <c r="Q20">
+        <v>5.268924253805334</v>
+      </c>
+      <c r="R20">
+        <v>31.613545522832</v>
+      </c>
+      <c r="S20">
+        <v>0.01981700599594323</v>
+      </c>
+      <c r="T20">
+        <v>0.0136352930122502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>102.0140613333333</v>
+      </c>
+      <c r="H21">
+        <v>306.042184</v>
+      </c>
+      <c r="I21">
+        <v>0.2437591368004809</v>
+      </c>
+      <c r="J21">
+        <v>0.2447637923374727</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M21">
+        <v>0.1217406666666667</v>
+      </c>
+      <c r="N21">
+        <v>0.365222</v>
+      </c>
+      <c r="O21">
+        <v>0.1916244387242736</v>
+      </c>
+      <c r="P21">
+        <v>0.1969619425792371</v>
+      </c>
+      <c r="Q21">
+        <v>12.41925983609422</v>
+      </c>
+      <c r="R21">
+        <v>111.773338524848</v>
+      </c>
+      <c r="S21">
+        <v>0.04671020777330558</v>
+      </c>
+      <c r="T21">
+        <v>0.0482091520118496</v>
       </c>
     </row>
   </sheetData>
